--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707327.6508324378</v>
+        <v>708111.7967704666</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>47.49940747082301</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29.34414032417733</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>165.0955214805377</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,61 +1135,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.1509275483508</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1421,10 +1423,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>24.5537323853639</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>30.65343945508051</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>17.57153846140836</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>100.0376190809312</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,70 +2080,70 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>101.8170792092338</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W23" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,10 +2417,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>94.64517963318413</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>41.32673120838164</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>28.31477130578991</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>32.03677880122241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,10 +2693,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,61 +2715,61 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>192.8196335699812</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>99.18344507946711</v>
       </c>
     </row>
     <row r="31">
@@ -2965,46 +2967,46 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>30.86155971440646</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>83.03189205754168</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3281,49 +3283,49 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.36935234189241</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>175.1168777114693</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3506,70 +3508,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>39.76255200930621</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>8.172609644471894</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>205.5178444382804</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.80391016049139</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.66473413638044</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4113,7 +4115,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4334,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>64.42062702054022</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4571,7 +4573,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4592,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.4991054615201</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C6" t="n">
-        <v>279.4991054615201</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D6" t="n">
-        <v>130.5646958002688</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="E6" t="n">
-        <v>130.5646958002688</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="F6" t="n">
-        <v>130.5646958002688</v>
+        <v>159.4511089294804</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>655.3082247424775</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>655.3082247424775</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>447.7144424815882</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>447.7144424815882</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X6" t="n">
-        <v>447.7144424815882</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y6" t="n">
-        <v>447.7144424815882</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.4718821152904</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>245.4718821152904</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>245.4718821152904</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>245.4718821152904</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>245.4718821152904</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N9" t="n">
-        <v>570.0333416264414</v>
-      </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>619.8847831118876</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X9" t="n">
-        <v>412.2910008509983</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y9" t="n">
-        <v>412.2910008509983</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5054,37 +5056,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>255.5008658160403</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>47.90708355515102</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>47.90708355515102</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>47.90708355515102</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>807.4381113577983</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>599.8443290969091</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>392.2505468360198</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="13">
@@ -5279,16 +5281,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.7410566979059</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>106.7410566979059</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>106.7410566979059</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>106.7410566979059</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7410566979059</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>106.7410566979059</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>106.7410566979059</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>106.7410566979059</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>106.7410566979059</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N18" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N18" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.0119685275972</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.9499078454769</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>222.9499078454769</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D21" t="n">
-        <v>222.9499078454769</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>222.9499078454769</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>222.9499078454769</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>861.2116209558546</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>659.0250263146206</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>430.8014080510097</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>430.8014080510097</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>430.8014080510097</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>222.9499078454769</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>222.9499078454769</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -6008,28 +6010,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
         <v>262.7299197543128</v>
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>546.3373467878552</v>
+        <v>456.7918502977974</v>
       </c>
       <c r="C24" t="n">
-        <v>371.8843175067282</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D24" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E24" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F24" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>868.4559639619654</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>868.4559639619654</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="X24" t="n">
-        <v>922.312982572877</v>
+        <v>625.0071873178654</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.5526838079231</v>
+        <v>625.0071873178654</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>226.0945550188371</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C27" t="n">
-        <v>51.64152573771011</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="D27" t="n">
-        <v>51.64152573771011</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>51.64152573771011</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>51.64152573771011</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>226.0945550188371</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>226.0945550188371</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>226.0945550188371</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y27" t="n">
-        <v>226.0945550188371</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6415,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>432.9682111954345</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="C30" t="n">
-        <v>258.5151819143075</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>432.9682111954345</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>432.9682111954345</v>
+        <v>589.284983454123</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6652,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>880.1865574727153</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>645.0344492409727</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W33" t="n">
-        <v>401.5856725968725</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X33" t="n">
-        <v>193.7341723913397</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.171420448546</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>921.2598299127651</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>747.842485363434</v>
       </c>
       <c r="T36" t="n">
-        <v>787.171420448546</v>
+        <v>545.6558907222</v>
       </c>
       <c r="U36" t="n">
-        <v>787.171420448546</v>
+        <v>317.4322724585891</v>
       </c>
       <c r="V36" t="n">
-        <v>787.171420448546</v>
+        <v>317.4322724585891</v>
       </c>
       <c r="W36" t="n">
-        <v>787.171420448546</v>
+        <v>317.4322724585891</v>
       </c>
       <c r="X36" t="n">
-        <v>787.171420448546</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.171420448546</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7219,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>176.4352409821462</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7351,10 +7353,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7417,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.4775954922324</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C42" t="n">
-        <v>614.4775954922324</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D42" t="n">
-        <v>574.3134015434382</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E42" t="n">
-        <v>415.0759465379826</v>
+        <v>171.2311467852198</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>24.69658881210475</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,13 +7493,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7527,13 +7529,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
         <v>16.44142755506243</v>
@@ -7597,22 +7599,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7682,16 +7684,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>395.3173542242394</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M45" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>626.8294255367553</v>
       </c>
-      <c r="O45" t="n">
-        <v>822.0713777531216</v>
-      </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>808.268615999202</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="V45" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="W45" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="X45" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y45" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7837,16 +7839,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7982,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,10 +8221,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22644,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>41.89722538059207</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22677,10 +22679,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22832,10 +22834,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,19 +22865,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>107.9993768390333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>35.06920721428392</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1346420369061</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.382256101516532</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>205.1452953058428</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>338.5801012383814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>87.68171185113256</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>211.4544483496048</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>202.1471476943448</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>140.0735419939926</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>132.7629680684941</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>69.86609189460407</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W23" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24303,10 +24305,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>131.2962024477907</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>164.4462539950958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>185.0989125581653</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>119.1302942588488</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.3067383619882</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>182.397745374651</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>12.95335163349628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>106.4992506978373</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>58.53507313700862</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>142.9094900234331</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,19 +25201,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>57.78848181075072</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>25.04785098335228</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>185.9018423672239</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.1001388840902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25591,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25646,7 +25648,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>107.6825135553325</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>129.1709075187387</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>201.358201303431</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>149.7292734893759</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433884.5292131085</v>
+        <v>433884.5292131084</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433884.5292131082</v>
+        <v>433884.5292131085</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433884.5292131084</v>
+        <v>433884.5292131085</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457001.394406236</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457001.394406236</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433884.5292131085</v>
+        <v>433884.5292131084</v>
       </c>
     </row>
   </sheetData>
@@ -26421,13 +26423,13 @@
         <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
+        <v>8092.707817725994</v>
+      </c>
+      <c r="E4" t="n">
         <v>8092.707817725995</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8092.707817725994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26451,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725994</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3116.564126682002</v>
+        <v>3116.56412668198</v>
       </c>
       <c r="C6" t="n">
         <v>71990.32070837184</v>
       </c>
       <c r="D6" t="n">
-        <v>71990.32070837187</v>
+        <v>71990.32070837182</v>
       </c>
       <c r="E6" t="n">
         <v>105617.9207083718</v>
@@ -26537,28 +26539,28 @@
         <v>99998.71521779474</v>
       </c>
       <c r="H6" t="n">
-        <v>109727.7581919618</v>
+        <v>109727.7581919619</v>
       </c>
       <c r="I6" t="n">
         <v>109727.7581919618</v>
       </c>
       <c r="J6" t="n">
-        <v>55955.24730175243</v>
+        <v>55955.2473017524</v>
       </c>
       <c r="K6" t="n">
-        <v>109727.7581919619</v>
+        <v>109727.7581919618</v>
       </c>
       <c r="L6" t="n">
         <v>109727.7581919618</v>
       </c>
       <c r="M6" t="n">
-        <v>109727.7581919619</v>
+        <v>109727.7581919618</v>
       </c>
       <c r="N6" t="n">
         <v>109727.7581919618</v>
       </c>
       <c r="O6" t="n">
-        <v>105617.9207083719</v>
+        <v>105617.9207083718</v>
       </c>
       <c r="P6" t="n">
         <v>105617.9207083718</v>
@@ -34702,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,10 +34941,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708111.7967704666</v>
+        <v>603879.2985070231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C2" t="n">
         <v>205.5178444382804</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.49940747082301</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8.590354951141745</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,70 +898,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.34414032417733</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>46.54968785507681</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>13.9434706946005</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,23 +1369,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>24.5537323853639</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.2418220378557</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,58 +1624,58 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>17.57153846140836</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,7 +2177,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>17.65645180446533</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>94.64517963318413</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>28.31477130578991</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>116.2794351611293</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>99.18344507946711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="33">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.86155971440646</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>126.2480181108248</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.36935234189241</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3429,58 +3429,58 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>8.172609644471894</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.66473413638044</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>91.62348452982238</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.8736563016672</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>64.42062702054022</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8736563016672</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X3" t="n">
-        <v>238.8736563016672</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.8736563016672</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4573,46 +4573,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480.4386961837225</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>159.4511089294804</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4649,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4813,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6485894889752</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
         <v>17.19556020784815</v>
@@ -4895,13 +4895,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W9" t="n">
-        <v>775.0514910308218</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X9" t="n">
-        <v>567.4577087699325</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.8639265090432</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4998,16 +4998,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.2969392348976</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C12" t="n">
-        <v>132.2969392348976</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>132.2969392348976</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
         <v>435.9652341458732</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>547.4845037566762</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="U12" t="n">
-        <v>547.4845037566762</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="V12" t="n">
-        <v>547.4845037566762</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="W12" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="X12" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.2969392348976</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5223,28 +5223,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,16 +5366,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5463,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,7 +5603,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>526.7184526376595</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>255.9366034337592</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5837,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>671.6354817117005</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="22">
@@ -5943,7 +5943,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>456.7918502977974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>282.3388210166704</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
         <v>20.03527576299844</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>868.4559639619654</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>868.4559639619654</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>625.0071873178654</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>625.0071873178654</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>625.0071873178654</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6417,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>421.0696464340549</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>421.0696464340549</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>272.1352367728036</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>272.1352367728036</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>589.284983454123</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>495.259035872464</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,40 +6791,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>259.0600686093459</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>51.20856840381305</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6967,10 +6967,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
         <v>262.7299197543128</v>
@@ -6979,10 +6979,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>921.2598299127651</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>747.842485363434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>545.6558907222</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U36" t="n">
-        <v>317.4322724585891</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>317.4322724585891</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>317.4322724585891</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>109.5807722530562</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7353,10 +7353,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="H41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>653.8560407330535</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C42" t="n">
-        <v>479.4030114519265</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4686017906753</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E42" t="n">
-        <v>171.2311467852198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>24.69658881210475</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="43">
@@ -7596,7 +7596,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="C44" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="D44" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="E44" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="F44" t="n">
         <v>443.6989813239244</v>
       </c>
-      <c r="C44" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="D44" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="E44" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="G44" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
         <v>28.51141680214578</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>808.268615999202</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>398.4882390970787</v>
+        <v>729.5224034805738</v>
       </c>
       <c r="V45" t="n">
-        <v>190.8944568361894</v>
+        <v>729.5224034805738</v>
       </c>
       <c r="W45" t="n">
-        <v>190.8944568361894</v>
+        <v>521.9286212196845</v>
       </c>
       <c r="X45" t="n">
-        <v>190.8944568361894</v>
+        <v>314.3348389587952</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>106.7410566979059</v>
       </c>
     </row>
     <row r="46">
@@ -7833,10 +7833,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8543,16 +8543,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9014,19 +9014,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11150,13 +11150,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>201.9320071929585</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C2" t="n">
         <v>159.7550473327271</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>41.89722538059207</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,19 +22679,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>197.1826302523357</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>107.9993768390333</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22913,22 +22913,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>242.1346420369061</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>205.1452953058428</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>191.7392250827039</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773254</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>87.68171185113256</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>46.92290665696589</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,13 +23512,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>136.7575940004622</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23819,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>140.0735419939926</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>234.0385313564543</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24183,10 +24183,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,7 +24208,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>275.3266899823873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>131.2962024477907</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,16 +24527,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>119.1302942588488</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24657,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>109.6619469198455</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>106.4992506978373</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="33">
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>58.53507313700862</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>125.4469650500948</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25207,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.78848181075072</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>148.8473042969312</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>107.544508198328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25520,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I41" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>148.3081341780014</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>129.1709075187387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25757,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25836,10 +25836,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>158.0184369674574</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>134.3178975511524</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26073,13 +26073,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433884.5292131084</v>
+        <v>433884.5292131085</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433884.5292131085</v>
+        <v>433884.5292131084</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.394406236</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433884.5292131085</v>
+        <v>433884.5292131086</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433884.5292131084</v>
+        <v>433884.5292131085</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>126206.1134679453</v>
       </c>
       <c r="E2" t="n">
-        <v>126206.1134679453</v>
+        <v>126206.1134679452</v>
       </c>
       <c r="F2" t="n">
         <v>126206.1134679453</v>
       </c>
       <c r="G2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="H2" t="n">
         <v>132928.5380250659</v>
@@ -26340,7 +26340,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="K2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="L2" t="n">
         <v>132928.5380250659</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="C4" t="n">
         <v>8092.707817725995</v>
@@ -26426,10 +26426,10 @@
         <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
+        <v>8092.707817725994</v>
+      </c>
+      <c r="F4" t="n">
         <v>8092.707817725995</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26441,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26456,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3116.56412668198</v>
+        <v>-9521.598028178509</v>
       </c>
       <c r="C6" t="n">
-        <v>71990.32070837184</v>
+        <v>59352.15855351131</v>
       </c>
       <c r="D6" t="n">
-        <v>71990.32070837182</v>
+        <v>59352.15855351131</v>
       </c>
       <c r="E6" t="n">
-        <v>105617.9207083718</v>
+        <v>92979.75855351129</v>
       </c>
       <c r="F6" t="n">
-        <v>105617.9207083719</v>
+        <v>92979.75855351132</v>
       </c>
       <c r="G6" t="n">
-        <v>99998.71521779474</v>
+        <v>87780.70459775433</v>
       </c>
       <c r="H6" t="n">
-        <v>109727.7581919619</v>
+        <v>97509.74757192137</v>
       </c>
       <c r="I6" t="n">
-        <v>109727.7581919618</v>
+        <v>97509.74757192134</v>
       </c>
       <c r="J6" t="n">
-        <v>55955.2473017524</v>
+        <v>43737.23668171194</v>
       </c>
       <c r="K6" t="n">
-        <v>109727.7581919618</v>
+        <v>97509.74757192146</v>
       </c>
       <c r="L6" t="n">
-        <v>109727.7581919618</v>
+        <v>97509.74757192134</v>
       </c>
       <c r="M6" t="n">
-        <v>109727.7581919618</v>
+        <v>97509.74757192137</v>
       </c>
       <c r="N6" t="n">
-        <v>109727.7581919618</v>
+        <v>97509.7475719214</v>
       </c>
       <c r="O6" t="n">
-        <v>105617.9207083718</v>
+        <v>92979.75855351133</v>
       </c>
       <c r="P6" t="n">
-        <v>105617.9207083718</v>
+        <v>92979.75855351133</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>148.1480627106907</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35734,19 +35734,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37870,13 +37870,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>70.5902951096252</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38028,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
